--- a/xworkz.xlsx
+++ b/xworkz.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vinay Viny\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Vinay-git-clone\Thor-xlxs\thor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5FB7F6E-5DC5-4083-B6CB-C7F07EB67567}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82DCBC0F-22B5-40F4-B004-05D9D6F8DEA7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="2964" windowWidth="20400" windowHeight="8964" xr2:uid="{17FE3567-98CC-4C0A-87CD-AF6DCADBD2FE}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="20400" windowHeight="8964" xr2:uid="{17FE3567-98CC-4C0A-87CD-AF6DCADBD2FE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="8">
   <si>
     <t>Vinay.s</t>
   </si>
@@ -43,6 +43,12 @@
   </si>
   <si>
     <t>vinaycralvy@gmail.com</t>
+  </si>
+  <si>
+    <t>Omkar</t>
+  </si>
+  <si>
+    <t>om.bn@outlook.com</t>
   </si>
 </sst>
 </file>
@@ -87,11 +93,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -407,10 +415,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77FFD7FC-2A7F-43E4-BB9D-AD85A0C1C1BC}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -519,6 +527,28 @@
         <v>44062</v>
       </c>
     </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="5">
+        <v>44061</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="5">
+        <v>44062</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B9" r:id="rId1" xr:uid="{43476C7E-4CB0-47C3-85A4-9EEA30C561C7}"/>
@@ -530,8 +560,10 @@
     <hyperlink ref="B3" r:id="rId7" xr:uid="{961B924E-8878-419E-8E65-04F1235D0973}"/>
     <hyperlink ref="B2" r:id="rId8" xr:uid="{B4E823B3-6C8D-4ED8-8D39-AB8B1BB2BF58}"/>
     <hyperlink ref="B1" r:id="rId9" xr:uid="{FC6DB1A8-D063-4CCB-B4DB-70E7381C0CE7}"/>
+    <hyperlink ref="B10" r:id="rId10" xr:uid="{D31C21AF-8EB3-4099-9E33-9610E5745BB4}"/>
+    <hyperlink ref="B11" r:id="rId11" xr:uid="{4A2B245F-C42E-4936-A5FD-B34920ED745F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId10"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId12"/>
 </worksheet>
 </file>
--- a/xworkz.xlsx
+++ b/xworkz.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vinay Viny\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Vinay-git-clone\Thor-xlxs\thor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FD10D3C7-3F23-47E8-920D-45A5BA279794}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7AE6830-6385-43F6-AD5D-E17D175723FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="20400" windowHeight="8964" xr2:uid="{17FE3567-98CC-4C0A-87CD-AF6DCADBD2FE}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="15375" windowHeight="7875" xr2:uid="{6A5BF13B-80D3-4360-AD24-CBF3ABCBD202}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -49,7 +49,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode=";;;**"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -83,19 +93,28 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="3">
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -406,21 +425,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77FFD7FC-2A7F-43E4-BB9D-AD85A0C1C1BC}">
-  <dimension ref="A1:C11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B01BAF0E-4842-4449-86AD-D4ED82C59C3F}">
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11" style="1" customWidth="1"/>
-    <col min="2" max="2" width="26.109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="16" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -428,10 +446,14 @@
         <v>1</v>
       </c>
       <c r="C1" s="3">
-        <v>44060</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+        <f t="shared" ref="C1:C9" si="0">D1+599</f>
+        <v>17082619</v>
+      </c>
+      <c r="D1" s="4">
+        <v>17082020</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -439,10 +461,14 @@
         <v>3</v>
       </c>
       <c r="C2" s="3">
-        <v>44060</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v>17082619</v>
+      </c>
+      <c r="D2" s="4">
+        <v>17082020</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -450,10 +476,14 @@
         <v>5</v>
       </c>
       <c r="C3" s="3">
-        <v>44060</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v>17082619</v>
+      </c>
+      <c r="D3" s="4">
+        <v>17082020</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -461,10 +491,14 @@
         <v>1</v>
       </c>
       <c r="C4" s="3">
-        <v>44061</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v>18082619</v>
+      </c>
+      <c r="D4" s="4">
+        <v>18082020</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -472,10 +506,14 @@
         <v>3</v>
       </c>
       <c r="C5" s="3">
-        <v>44061</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v>1082619</v>
+      </c>
+      <c r="D5" s="4">
+        <v>1082020</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -483,10 +521,14 @@
         <v>5</v>
       </c>
       <c r="C6" s="3">
-        <v>44061</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v>2082619</v>
+      </c>
+      <c r="D6" s="4">
+        <v>2082020</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -494,10 +536,14 @@
         <v>1</v>
       </c>
       <c r="C7" s="3">
-        <v>44062</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v>17082619</v>
+      </c>
+      <c r="D7" s="4">
+        <v>17082020</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>2</v>
       </c>
@@ -505,10 +551,14 @@
         <v>3</v>
       </c>
       <c r="C8" s="3">
-        <v>44062</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v>17082619</v>
+      </c>
+      <c r="D8" s="4">
+        <v>17082020</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>4</v>
       </c>
@@ -516,28 +566,24 @@
         <v>5</v>
       </c>
       <c r="C9" s="3">
-        <v>44062</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10"/>
-      <c r="B10"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11"/>
-      <c r="B11"/>
+        <f t="shared" si="0"/>
+        <v>17082619</v>
+      </c>
+      <c r="D9" s="4">
+        <v>17082020</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B9" r:id="rId1" xr:uid="{43476C7E-4CB0-47C3-85A4-9EEA30C561C7}"/>
-    <hyperlink ref="B8" r:id="rId2" xr:uid="{C6DB3F96-04D3-4BC7-979E-C2EB37D02503}"/>
-    <hyperlink ref="B7" r:id="rId3" xr:uid="{48B7A0DD-B897-4FC7-A23D-2F12230FA1D7}"/>
-    <hyperlink ref="B6" r:id="rId4" xr:uid="{E8542101-3652-4ABF-9262-DD69B4C7403A}"/>
-    <hyperlink ref="B5" r:id="rId5" xr:uid="{F38441A9-3D6E-4CA1-9BD4-FE58AB243236}"/>
-    <hyperlink ref="B4" r:id="rId6" xr:uid="{9368C32E-37B6-4127-8FE9-E2D485944374}"/>
-    <hyperlink ref="B3" r:id="rId7" xr:uid="{961B924E-8878-419E-8E65-04F1235D0973}"/>
-    <hyperlink ref="B2" r:id="rId8" xr:uid="{B4E823B3-6C8D-4ED8-8D39-AB8B1BB2BF58}"/>
-    <hyperlink ref="B1" r:id="rId9" xr:uid="{FC6DB1A8-D063-4CCB-B4DB-70E7381C0CE7}"/>
+    <hyperlink ref="B1" r:id="rId1" xr:uid="{1D0C2801-426B-49B1-9340-EA9E07C51221}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{10D9C910-B496-4F28-9961-BA4029BD4FB8}"/>
+    <hyperlink ref="B3" r:id="rId3" xr:uid="{174F2FCB-1C9A-49BB-8EFF-77FBE19FCC76}"/>
+    <hyperlink ref="B4" r:id="rId4" xr:uid="{F60A8928-ECBD-4AF0-B16C-2D693FBBA273}"/>
+    <hyperlink ref="B5" r:id="rId5" xr:uid="{62AB5B87-BCAB-4B4F-BFA1-9B637D6BF3B7}"/>
+    <hyperlink ref="B6" r:id="rId6" xr:uid="{D887CB29-B4A5-450F-934F-556AA11AC077}"/>
+    <hyperlink ref="B7" r:id="rId7" xr:uid="{177AE3C2-A5B6-4A50-B1B9-4C1440AE4903}"/>
+    <hyperlink ref="B8" r:id="rId8" xr:uid="{A501A228-E84A-4F53-8555-C5AEF287AFC3}"/>
+    <hyperlink ref="B9" r:id="rId9" xr:uid="{4AC10C30-C47D-4FDF-96E5-C9AD13095C48}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId10"/>

--- a/xworkz.xlsx
+++ b/xworkz.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Vinay-git-clone\Thor-xlxs\thor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7AE6830-6385-43F6-AD5D-E17D175723FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E43AC06-DC57-4CEC-9826-FFDCEB2D3FD4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="15375" windowHeight="7875" xr2:uid="{6A5BF13B-80D3-4360-AD24-CBF3ABCBD202}"/>
+    <workbookView xWindow="1515" yWindow="1515" windowWidth="15375" windowHeight="7875" xr2:uid="{6A5BF13B-80D3-4360-AD24-CBF3ABCBD202}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -429,7 +429,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -446,11 +446,11 @@
         <v>1</v>
       </c>
       <c r="C1" s="3">
-        <f t="shared" ref="C1:C9" si="0">D1+599</f>
-        <v>17082619</v>
+        <f>D1+599</f>
+        <v>2092619</v>
       </c>
       <c r="D1" s="4">
-        <v>17082020</v>
+        <v>2092020</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -461,11 +461,11 @@
         <v>3</v>
       </c>
       <c r="C2" s="3">
-        <f t="shared" si="0"/>
-        <v>17082619</v>
+        <f t="shared" ref="C2:C9" si="0">D2+599</f>
+        <v>2092619</v>
       </c>
       <c r="D2" s="4">
-        <v>17082020</v>
+        <v>2092020</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
